--- a/models/synechocystis/reactions.xlsx
+++ b/models/synechocystis/reactions.xlsx
@@ -5,20 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwu\Desktop\Software\EMUlator2\Data\Synechocystis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwu\Desktop\Software\EMUlator2\Data\Synechocystis_jy_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773F778-9B8D-40C9-B720-41538AE9942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFA2442-2235-41CF-8CB2-78B0370B1F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="435" windowWidth="19950" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="1080" windowWidth="21600" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,217 +49,106 @@
     <t>reversibility</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
     <t>G6P(abcdef)</t>
   </si>
   <si>
     <t>F6P(abcdef)</t>
   </si>
   <si>
-    <t>v2</t>
-  </si>
-  <si>
     <t>FBP(abcdef)</t>
   </si>
   <si>
-    <t>v3</t>
-  </si>
-  <si>
     <t>DHAP(cba)+GAP(def)</t>
   </si>
   <si>
-    <t>v4</t>
-  </si>
-  <si>
     <t>DHAP(abc)</t>
   </si>
   <si>
     <t>GAP(abc)</t>
   </si>
   <si>
-    <t>v5</t>
-  </si>
-  <si>
     <t>G3P(abc)</t>
   </si>
   <si>
-    <t>v6</t>
-  </si>
-  <si>
     <t>G2P(abc)</t>
   </si>
   <si>
-    <t>v7</t>
-  </si>
-  <si>
     <t>PEP(abc)</t>
   </si>
   <si>
-    <t>v8</t>
-  </si>
-  <si>
     <t>Pyr(abc)</t>
   </si>
   <si>
-    <t>v9</t>
-  </si>
-  <si>
-    <t>v10</t>
-  </si>
-  <si>
     <t>Ru5P(abcde)</t>
   </si>
   <si>
     <t>X5P(abcde)</t>
   </si>
   <si>
-    <t>v11</t>
-  </si>
-  <si>
     <t>R5P(abcde)</t>
   </si>
   <si>
-    <t>v12</t>
-  </si>
-  <si>
     <t>RuBP(abcde)</t>
   </si>
   <si>
-    <t>v13</t>
-  </si>
-  <si>
     <t>G3P(cde)+G3P(fba)</t>
   </si>
   <si>
-    <t>v14</t>
-  </si>
-  <si>
     <t>TK(ab)+GAP(cde)</t>
   </si>
   <si>
-    <t>v15</t>
-  </si>
-  <si>
     <t>TK(ab)+E4P(cdef)</t>
   </si>
   <si>
-    <t>v16</t>
-  </si>
-  <si>
     <t>S7P(abcdefg)</t>
   </si>
   <si>
     <t>TK(ab)+R5P(cdefg)</t>
   </si>
   <si>
-    <t>v17</t>
-  </si>
-  <si>
     <t>TA(abc)+GAP(def)</t>
   </si>
   <si>
-    <t>v18</t>
-  </si>
-  <si>
     <t>TA(abc)+E4P(defg)</t>
   </si>
   <si>
-    <t>v19</t>
-  </si>
-  <si>
     <t>DHAP(abc)+E4P(defg)</t>
   </si>
   <si>
     <t>SBP(cbadefg)</t>
   </si>
   <si>
-    <t>v20</t>
-  </si>
-  <si>
     <t>SBP(abcdefg)</t>
   </si>
   <si>
-    <t>v21</t>
-  </si>
-  <si>
-    <t>v22</t>
-  </si>
-  <si>
     <t>OAA(abcd)+AcCoA(ef)</t>
   </si>
   <si>
     <t>Cit(dcbfea)</t>
   </si>
   <si>
-    <t>v23</t>
-  </si>
-  <si>
     <t>Cit(abcdef)</t>
   </si>
   <si>
     <t>ICit(abcdef)</t>
   </si>
   <si>
-    <t>v24</t>
-  </si>
-  <si>
-    <t>v25</t>
-  </si>
-  <si>
-    <t>v26</t>
-  </si>
-  <si>
-    <t>v27</t>
-  </si>
-  <si>
     <t>Mal(abcd)</t>
   </si>
   <si>
-    <t>v28</t>
-  </si>
-  <si>
     <t>OAA(abcd)</t>
   </si>
   <si>
-    <t>v29</t>
-  </si>
-  <si>
-    <t>v30</t>
-  </si>
-  <si>
     <t>#Photorespiration</t>
   </si>
   <si>
-    <t>v31</t>
-  </si>
-  <si>
     <t>G3P(cde)+PG(ba)</t>
   </si>
   <si>
-    <t>v32</t>
-  </si>
-  <si>
     <t>PG(ab)</t>
   </si>
   <si>
-    <t>v33</t>
-  </si>
-  <si>
-    <t>v34</t>
-  </si>
-  <si>
-    <t>v35</t>
-  </si>
-  <si>
     <t>#Transport</t>
-  </si>
-  <si>
-    <t>v36</t>
-  </si>
-  <si>
-    <t>v37</t>
   </si>
   <si>
     <t>#Glycolysis and OPP pathway</t>
@@ -336,13 +235,124 @@
     <t>Ga(abc)</t>
   </si>
   <si>
-    <t>v38</t>
-  </si>
-  <si>
     <t>Suc(abcd,dcba)</t>
   </si>
   <si>
     <t>Fum(abcd,dcba)</t>
+  </si>
+  <si>
+    <t>pgi</t>
+  </si>
+  <si>
+    <t>g6pdh</t>
+  </si>
+  <si>
+    <t>pfk</t>
+  </si>
+  <si>
+    <t>fba</t>
+  </si>
+  <si>
+    <t>tpi</t>
+  </si>
+  <si>
+    <t>gapdh</t>
+  </si>
+  <si>
+    <t>gpm</t>
+  </si>
+  <si>
+    <t>eno</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>rpe</t>
+  </si>
+  <si>
+    <t>rpi</t>
+  </si>
+  <si>
+    <t>prk</t>
+  </si>
+  <si>
+    <t>rbc1</t>
+  </si>
+  <si>
+    <t>tkt1</t>
+  </si>
+  <si>
+    <t>tkt2</t>
+  </si>
+  <si>
+    <t>tkt3</t>
+  </si>
+  <si>
+    <t>tal1</t>
+  </si>
+  <si>
+    <t>tal2</t>
+  </si>
+  <si>
+    <t>sba</t>
+  </si>
+  <si>
+    <t>sbp</t>
+  </si>
+  <si>
+    <t>pdh</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>icd</t>
+  </si>
+  <si>
+    <t>sdh</t>
+  </si>
+  <si>
+    <t>fum</t>
+  </si>
+  <si>
+    <t>mdh</t>
+  </si>
+  <si>
+    <t>icl</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>ppc</t>
+  </si>
+  <si>
+    <t>rbc2</t>
+  </si>
+  <si>
+    <t>pgp</t>
+  </si>
+  <si>
+    <t>gld</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>glyk</t>
+  </si>
+  <si>
+    <t>co2in</t>
+  </si>
+  <si>
+    <t>biom</t>
   </si>
 </sst>
 </file>
@@ -682,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,18 +720,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -729,97 +739,97 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -827,13 +837,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -841,18 +851,18 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -860,13 +870,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -874,13 +884,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -888,13 +898,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -902,13 +912,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -916,13 +926,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -930,13 +940,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -944,13 +954,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -958,13 +968,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -972,13 +982,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -986,13 +996,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1000,18 +1010,18 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1019,13 +1029,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1033,13 +1043,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1047,13 +1057,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1061,13 +1071,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1075,13 +1085,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1089,13 +1099,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1103,18 +1113,18 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>60</v>
+      <c r="A33" t="s">
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1122,13 +1132,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1136,32 +1146,32 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>65</v>
+      <c r="A37" t="s">
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1169,18 +1179,18 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1188,13 +1198,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1202,13 +1212,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1216,13 +1226,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1230,13 +1240,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1244,7 +1254,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1252,13 +1262,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -1266,18 +1276,18 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D47">
         <v>0</v>
